--- a/Table(Large Countries).xlsx
+++ b/Table(Large Countries).xlsx
@@ -435,13 +435,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.514130336019668</v>
+        <v>0.5136163730847197</v>
       </c>
       <c r="C2">
-        <v>0.01382192808978422</v>
+        <v>0.1171697062707222</v>
       </c>
       <c r="D2">
-        <v>0.29260350284978</v>
+        <v>0.1888265380306891</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3578062074801455</v>
+        <v>0.360498222072498</v>
       </c>
       <c r="C3">
-        <v>0.03840871162231332</v>
+        <v>0.03858302087980377</v>
       </c>
       <c r="D3">
-        <v>0.1116925907777285</v>
+        <v>0.1142950724093859</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4163561829223986</v>
+        <v>0.4168062380680419</v>
       </c>
       <c r="C4">
-        <v>0.03398528862503561</v>
+        <v>0.0538646755816542</v>
       </c>
       <c r="D4">
-        <v>0.1746659892172593</v>
+        <v>0.1553214337030793</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.37435896374165</v>
+        <v>0.3753260670668909</v>
       </c>
       <c r="C5">
-        <v>0.04823986929339871</v>
+        <v>0.04959047306675238</v>
       </c>
       <c r="D5">
-        <v>0.1184141893681475</v>
+        <v>0.1181154652168301</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4943797827068379</v>
+        <v>0.4966683700391352</v>
       </c>
       <c r="C6">
-        <v>0.1223124666043612</v>
+        <v>0.1230388513470418</v>
       </c>
       <c r="D6">
-        <v>0.1643624110223731</v>
+        <v>0.1660093899087849</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.5396312083700672</v>
+        <v>0.538490741225529</v>
       </c>
       <c r="C7">
-        <v>0.009976638137313613</v>
+        <v>0.009963398323159955</v>
       </c>
       <c r="D7">
-        <v>0.3219496651526499</v>
+        <v>0.3209072141190605</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.4842998654863943</v>
+        <v>0.4874586531693171</v>
       </c>
       <c r="C8">
-        <v>0.01568736479394752</v>
+        <v>0.01753910120864197</v>
       </c>
       <c r="D8">
-        <v>0.2609075956123431</v>
+        <v>0.2622994231773667</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.5526738944154318</v>
+        <v>0.553815997423217</v>
       </c>
       <c r="C9">
-        <v>0.02938707787636695</v>
+        <v>0.1577055955460852</v>
       </c>
       <c r="D9">
-        <v>0.3155819114589611</v>
+        <v>0.1884902730938234</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.6116923889008841</v>
+        <v>0.6123222448372933</v>
       </c>
       <c r="C10">
-        <v>0.01585514814611394</v>
+        <v>0.1882331730414833</v>
       </c>
       <c r="D10">
-        <v>0.3881323356746664</v>
+        <v>0.2164689430125015</v>
       </c>
     </row>
   </sheetData>

--- a/Table(Large Countries).xlsx
+++ b/Table(Large Countries).xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Average minimum price</t>
+  </si>
   <si>
     <t>Weighted average Price</t>
   </si>
@@ -22,7 +25,13 @@
     <t>Average cost of entry</t>
   </si>
   <si>
-    <t>Average generic profit</t>
+    <t>Average profit</t>
+  </si>
+  <si>
+    <t>Average number of entry</t>
+  </si>
+  <si>
+    <t>Share of brand profit</t>
   </si>
   <si>
     <t>Model</t>
@@ -52,7 +61,10 @@
     <t>S. Korea</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>Spain 1</t>
+  </si>
+  <si>
+    <t>Spain 2</t>
   </si>
 </sst>
 </file>
@@ -410,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -429,131 +441,244 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.5136163730847197</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C2">
-        <v>0.1171697062707222</v>
+        <v>0.5049917206891438</v>
       </c>
       <c r="D2">
-        <v>0.1888265380306891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1175675495206295</v>
+      </c>
+      <c r="E2">
+        <v>0.178792354272391</v>
+      </c>
+      <c r="F2">
+        <v>10.7892</v>
+      </c>
+      <c r="G2">
+        <v>0.2681460259145177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.360498222072498</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C3">
-        <v>0.03858302087980377</v>
+        <v>0.3567517060887002</v>
       </c>
       <c r="D3">
-        <v>0.1142950724093859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.03950625095169807</v>
+      </c>
+      <c r="E3">
+        <v>0.1086136382408789</v>
+      </c>
+      <c r="F3">
+        <v>2.5488</v>
+      </c>
+      <c r="G3">
+        <v>0.1450243103224494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4168062380680419</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C4">
-        <v>0.0538646755816542</v>
+        <v>0.4171159950243074</v>
       </c>
       <c r="D4">
-        <v>0.1553214337030793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05416733319009059</v>
+      </c>
+      <c r="E4">
+        <v>0.1543168449380934</v>
+      </c>
+      <c r="F4">
+        <v>4.4174</v>
+      </c>
+      <c r="G4">
+        <v>0.005492277936874569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3753260670668909</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C5">
-        <v>0.04959047306675238</v>
+        <v>0.3697102996583971</v>
       </c>
       <c r="D5">
-        <v>0.1181154652168301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.05062929843527644</v>
+      </c>
+      <c r="E5">
+        <v>0.1104491843269974</v>
+      </c>
+      <c r="F5">
+        <v>3.5647</v>
+      </c>
+      <c r="G5">
+        <v>0.2436832399894403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4966683700391352</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C6">
-        <v>0.1230388513470418</v>
+        <v>0.498152556626435</v>
       </c>
       <c r="D6">
-        <v>0.1660093899087849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1235878524254665</v>
+      </c>
+      <c r="E6">
+        <v>0.1659328873048452</v>
+      </c>
+      <c r="F6">
+        <v>8.007099999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.0004708363394814154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.538490741225529</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C7">
-        <v>0.009963398323159955</v>
+        <v>0.5145638069402014</v>
       </c>
       <c r="D7">
-        <v>0.3209072141190605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01163880012731167</v>
+      </c>
+      <c r="E7">
+        <v>0.2942931899167665</v>
+      </c>
+      <c r="F7">
+        <v>0.7272</v>
+      </c>
+      <c r="G7">
+        <v>0.8592660269003076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4874586531693171</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C8">
-        <v>0.01753910120864197</v>
+        <v>0.4779540442329746</v>
       </c>
       <c r="D8">
-        <v>0.2622994231773667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01872973620285109</v>
+      </c>
+      <c r="E8">
+        <v>0.2505924911340002</v>
+      </c>
+      <c r="F8">
+        <v>1.2496</v>
+      </c>
+      <c r="G8">
+        <v>0.1074039168899179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.553815997423217</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C9">
-        <v>0.1577055955460852</v>
+        <v>0.549930410334232</v>
       </c>
       <c r="D9">
-        <v>0.1884902730938234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1577312907821215</v>
+      </c>
+      <c r="E9">
+        <v>0.1835673026559872</v>
+      </c>
+      <c r="F9">
+        <v>14.4098</v>
+      </c>
+      <c r="G9">
+        <v>0.04658470508515007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6123222448372933</v>
+        <v>0.2517454408954397</v>
       </c>
       <c r="C10">
-        <v>0.1882331730414833</v>
+        <v>0.6089226903212468</v>
       </c>
       <c r="D10">
-        <v>0.2164689430125015</v>
+        <v>0.1883732823272867</v>
+      </c>
+      <c r="E10">
+        <v>0.2119175910978368</v>
+      </c>
+      <c r="F10">
+        <v>17.1957</v>
+      </c>
+      <c r="G10">
+        <v>0.03820208307662976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.2517454408954397</v>
+      </c>
+      <c r="C11">
+        <v>0.4519764139127742</v>
+      </c>
+      <c r="D11">
+        <v>0.09826137140264987</v>
+      </c>
+      <c r="E11">
+        <v>0.145083225614001</v>
+      </c>
+      <c r="F11">
+        <v>8.9268</v>
+      </c>
+      <c r="G11">
+        <v>0.05580034070966752</v>
       </c>
     </row>
   </sheetData>

--- a/Table(Large Countries).xlsx
+++ b/Table(Large Countries).xlsx
@@ -456,22 +456,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C2">
-        <v>0.5049917206891438</v>
+        <v>0.5044427149844322</v>
       </c>
       <c r="D2">
-        <v>0.1175675495206295</v>
+        <v>0.1169871960029787</v>
       </c>
       <c r="E2">
-        <v>0.178792354272391</v>
+        <v>0.177072173272098</v>
       </c>
       <c r="F2">
-        <v>10.7892</v>
+        <v>10.8224</v>
       </c>
       <c r="G2">
-        <v>0.2681460259145177</v>
+        <v>0.2643427407703541</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -479,22 +479,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C3">
-        <v>0.3567517060887002</v>
+        <v>0.3581160721256397</v>
       </c>
       <c r="D3">
-        <v>0.03950625095169807</v>
+        <v>0.03930472354652315</v>
       </c>
       <c r="E3">
-        <v>0.1086136382408789</v>
+        <v>0.108428002869761</v>
       </c>
       <c r="F3">
-        <v>2.5488</v>
+        <v>2.5347</v>
       </c>
       <c r="G3">
-        <v>0.1450243103224494</v>
+        <v>0.1448201598931247</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -502,22 +502,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C4">
-        <v>0.4171159950243074</v>
+        <v>0.4177985170984884</v>
       </c>
       <c r="D4">
-        <v>0.05416733319009059</v>
+        <v>0.05396969122235967</v>
       </c>
       <c r="E4">
-        <v>0.1543168449380934</v>
+        <v>0.1534454801667734</v>
       </c>
       <c r="F4">
-        <v>4.4174</v>
+        <v>4.4988</v>
       </c>
       <c r="G4">
-        <v>0.005492277936874569</v>
+        <v>0.003799691099168622</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -525,22 +525,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C5">
-        <v>0.3697102996583971</v>
+        <v>0.3720802740038393</v>
       </c>
       <c r="D5">
-        <v>0.05062929843527644</v>
+        <v>0.05041764331320411</v>
       </c>
       <c r="E5">
-        <v>0.1104491843269974</v>
+        <v>0.1112792849812798</v>
       </c>
       <c r="F5">
-        <v>3.5647</v>
+        <v>3.5936</v>
       </c>
       <c r="G5">
-        <v>0.2436832399894403</v>
+        <v>0.254934824279473</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,22 +548,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C6">
-        <v>0.498152556626435</v>
+        <v>0.498297803340839</v>
       </c>
       <c r="D6">
-        <v>0.1235878524254665</v>
+        <v>0.1227600903200749</v>
       </c>
       <c r="E6">
-        <v>0.1659328873048452</v>
+        <v>0.1651543673114087</v>
       </c>
       <c r="F6">
-        <v>8.007099999999999</v>
+        <v>7.9746</v>
       </c>
       <c r="G6">
-        <v>0.0004708363394814154</v>
+        <v>0.0004753116889738168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -571,22 +571,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C7">
-        <v>0.5145638069402014</v>
+        <v>0.5188797973345748</v>
       </c>
       <c r="D7">
-        <v>0.01163880012731167</v>
+        <v>0.01153863862848798</v>
       </c>
       <c r="E7">
-        <v>0.2942931899167665</v>
+        <v>0.2969578129967313</v>
       </c>
       <c r="F7">
-        <v>0.7272</v>
+        <v>0.7234</v>
       </c>
       <c r="G7">
-        <v>0.8592660269003076</v>
+        <v>0.8590465420311756</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -594,22 +594,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C8">
-        <v>0.4779540442329746</v>
+        <v>0.4810461534195427</v>
       </c>
       <c r="D8">
-        <v>0.01872973620285109</v>
+        <v>0.01846402971266147</v>
       </c>
       <c r="E8">
-        <v>0.2505924911340002</v>
+        <v>0.2521987779975257</v>
       </c>
       <c r="F8">
-        <v>1.2496</v>
+        <v>1.2653</v>
       </c>
       <c r="G8">
-        <v>0.1074039168899179</v>
+        <v>0.1124865282373663</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -617,22 +617,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C9">
-        <v>0.549930410334232</v>
+        <v>0.5511616442152451</v>
       </c>
       <c r="D9">
-        <v>0.1577312907821215</v>
+        <v>0.1569384948185394</v>
       </c>
       <c r="E9">
-        <v>0.1835673026559872</v>
+        <v>0.1838398036873502</v>
       </c>
       <c r="F9">
-        <v>14.4098</v>
+        <v>14.4587</v>
       </c>
       <c r="G9">
-        <v>0.04658470508515007</v>
+        <v>0.05131356452881696</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -640,22 +640,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C10">
-        <v>0.6089226903212468</v>
+        <v>0.6098188679098051</v>
       </c>
       <c r="D10">
-        <v>0.1883732823272867</v>
+        <v>0.1874286181831061</v>
       </c>
       <c r="E10">
-        <v>0.2119175910978368</v>
+        <v>0.2120069040173437</v>
       </c>
       <c r="F10">
-        <v>17.1957</v>
+        <v>17.264</v>
       </c>
       <c r="G10">
-        <v>0.03820208307662976</v>
+        <v>0.04185260826037559</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -663,22 +663,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2517454408954397</v>
+        <v>0.2525213702095979</v>
       </c>
       <c r="C11">
-        <v>0.4519764139127742</v>
+        <v>0.4541507373264029</v>
       </c>
       <c r="D11">
-        <v>0.09826137140264987</v>
+        <v>0.09757402024025622</v>
       </c>
       <c r="E11">
-        <v>0.145083225614001</v>
+        <v>0.1461933713767913</v>
       </c>
       <c r="F11">
-        <v>8.9268</v>
+        <v>8.956799999999999</v>
       </c>
       <c r="G11">
-        <v>0.05580034070966752</v>
+        <v>0.06069387290798572</v>
       </c>
     </row>
   </sheetData>

--- a/Table(Large Countries).xlsx
+++ b/Table(Large Countries).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Average minimum price</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Share of brand profit</t>
+  </si>
+  <si>
+    <t>Proportion of markets with 0 entrants</t>
+  </si>
+  <si>
+    <t>Proportion of markets with 1 entrant</t>
   </si>
   <si>
     <t>Model</t>
@@ -422,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -450,235 +456,301 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C2">
-        <v>0.5044427149844322</v>
+        <v>0.4538879874464096</v>
       </c>
       <c r="D2">
-        <v>0.1169871960029787</v>
+        <v>0.1590223486058113</v>
       </c>
       <c r="E2">
-        <v>0.177072173272098</v>
+        <v>0.1785196089235613</v>
       </c>
       <c r="F2">
-        <v>10.8224</v>
+        <v>14.6424</v>
       </c>
       <c r="G2">
-        <v>0.2643427407703541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.02198039358127478</v>
+      </c>
+      <c r="H2">
+        <v>0.0299</v>
+      </c>
+      <c r="I2">
+        <v>0.1118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C3">
-        <v>0.3581160721256397</v>
+        <v>0.2666596475950501</v>
       </c>
       <c r="D3">
-        <v>0.03930472354652315</v>
+        <v>0.05052038535013854</v>
       </c>
       <c r="E3">
-        <v>0.108428002869761</v>
+        <v>0.09979323232787453</v>
       </c>
       <c r="F3">
-        <v>2.5347</v>
+        <v>3.3129</v>
       </c>
       <c r="G3">
-        <v>0.1448201598931247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.01134494858626284</v>
+      </c>
+      <c r="H3">
+        <v>0.0164</v>
+      </c>
+      <c r="I3">
+        <v>0.1617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C4">
-        <v>0.4177985170984884</v>
+        <v>0.3336715909803658</v>
       </c>
       <c r="D4">
-        <v>0.05396969122235967</v>
+        <v>0.07324372965314203</v>
       </c>
       <c r="E4">
-        <v>0.1534454801667734</v>
+        <v>0.1440818314101868</v>
       </c>
       <c r="F4">
-        <v>4.4988</v>
+        <v>6.4281</v>
       </c>
       <c r="G4">
-        <v>0.003799691099168622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.001111596229848225</v>
+      </c>
+      <c r="H4">
+        <v>0.0081</v>
+      </c>
+      <c r="I4">
+        <v>0.1034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C5">
-        <v>0.3720802740038393</v>
+        <v>0.2851929214026033</v>
       </c>
       <c r="D5">
-        <v>0.05041764331320411</v>
+        <v>0.06739942381520415</v>
       </c>
       <c r="E5">
-        <v>0.1112792849812798</v>
+        <v>0.1014474676703622</v>
       </c>
       <c r="F5">
-        <v>3.5936</v>
+        <v>4.9285</v>
       </c>
       <c r="G5">
-        <v>0.254934824279473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.02101879222984614</v>
+      </c>
+      <c r="H5">
+        <v>0.0219</v>
+      </c>
+      <c r="I5">
+        <v>0.1476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C6">
-        <v>0.498297803340839</v>
+        <v>0.4335230448352561</v>
       </c>
       <c r="D6">
-        <v>0.1227600903200749</v>
+        <v>0.1374922984646427</v>
       </c>
       <c r="E6">
-        <v>0.1651543673114087</v>
+        <v>0.1796847164535763</v>
       </c>
       <c r="F6">
-        <v>7.9746</v>
+        <v>9.002000000000001</v>
       </c>
       <c r="G6">
-        <v>0.0004753116889738168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0004539814002886903</v>
+      </c>
+      <c r="H6">
+        <v>0.0054</v>
+      </c>
+      <c r="I6">
+        <v>0.0356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C7">
-        <v>0.5188797973345748</v>
+        <v>0.2897983767692929</v>
       </c>
       <c r="D7">
-        <v>0.01153863862848798</v>
+        <v>0.01795535561237873</v>
       </c>
       <c r="E7">
-        <v>0.2969578129967313</v>
+        <v>0.1554969912398771</v>
       </c>
       <c r="F7">
-        <v>0.7234</v>
+        <v>1.1378</v>
       </c>
       <c r="G7">
-        <v>0.8590465420311756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.5871617280907319</v>
+      </c>
+      <c r="H7">
+        <v>0.1925</v>
+      </c>
+      <c r="I7">
+        <v>0.5125999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C8">
-        <v>0.4810461534195427</v>
+        <v>0.3985832875262029</v>
       </c>
       <c r="D8">
-        <v>0.01846402971266147</v>
+        <v>0.02255176027752001</v>
       </c>
       <c r="E8">
-        <v>0.2521987779975257</v>
+        <v>0.2596854973316459</v>
       </c>
       <c r="F8">
-        <v>1.2653</v>
+        <v>1.678</v>
       </c>
       <c r="G8">
-        <v>0.1124865282373663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.008211098683282257</v>
+      </c>
+      <c r="H8">
+        <v>0.0219</v>
+      </c>
+      <c r="I8">
+        <v>0.8138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C9">
-        <v>0.5511616442152451</v>
+        <v>0.5369460384627031</v>
       </c>
       <c r="D9">
-        <v>0.1569384948185394</v>
+        <v>0.2014912333738604</v>
       </c>
       <c r="E9">
-        <v>0.1838398036873502</v>
+        <v>0.2191087751718056</v>
       </c>
       <c r="F9">
-        <v>14.4587</v>
+        <v>18.5035</v>
       </c>
       <c r="G9">
-        <v>0.05131356452881696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.002732681549300759</v>
+      </c>
+      <c r="H9">
+        <v>0.0141</v>
+      </c>
+      <c r="I9">
+        <v>0.0843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C10">
-        <v>0.6098188679098051</v>
+        <v>0.6003259456039496</v>
       </c>
       <c r="D10">
-        <v>0.1874286181831061</v>
+        <v>0.2335585525123026</v>
       </c>
       <c r="E10">
-        <v>0.2120069040173437</v>
+        <v>0.2504213631746099</v>
       </c>
       <c r="F10">
-        <v>17.264</v>
+        <v>21.4189</v>
       </c>
       <c r="G10">
-        <v>0.04185260826037559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.002046843988858804</v>
+      </c>
+      <c r="H10">
+        <v>0.0138</v>
+      </c>
+      <c r="I10">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.2525213702095979</v>
+        <v>0.16272526682751</v>
       </c>
       <c r="C11">
-        <v>0.4541507373264029</v>
+        <v>0.4120872663706305</v>
       </c>
       <c r="D11">
-        <v>0.09757402024025622</v>
+        <v>0.1352963287557228</v>
       </c>
       <c r="E11">
-        <v>0.1461933713767913</v>
+        <v>0.1604449076978708</v>
       </c>
       <c r="F11">
-        <v>8.956799999999999</v>
+        <v>12.4468</v>
       </c>
       <c r="G11">
-        <v>0.06069387290798572</v>
+        <v>0.003194700718460883</v>
+      </c>
+      <c r="H11">
+        <v>0.0138</v>
+      </c>
+      <c r="I11">
+        <v>0.1643</v>
       </c>
     </row>
   </sheetData>
